--- a/Lab2/PSR manual.xlsx
+++ b/Lab2/PSR manual.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedri\Documents\ITA\COMP_4_semestre\CTC17\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4B5CB0-989D-4DD2-AA13-8EBFF3105807}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC90091B-4146-470A-B181-535A82F982FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2F417278-0478-4FEE-B0D9-594882980170}"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="12705" windowHeight="11070" activeTab="2" xr2:uid="{2F417278-0478-4FEE-B0D9-594882980170}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo " sheetId="2" r:id="rId1"/>
     <sheet name="Resolução" sheetId="1" r:id="rId2"/>
+    <sheet name="Lab1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -597,6 +597,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -630,9 +634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,9 +643,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2478E5B5-B9A7-4378-8265-58FE8CBB9976}">
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8:F12"/>
     </sheetView>
   </sheetViews>
@@ -1093,55 +1093,55 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="47" t="s">
+      <c r="H6" s="46"/>
+      <c r="I6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="47" t="s">
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="47" t="s">
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="47" t="s">
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="47" t="s">
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="42"/>
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
     </row>
     <row r="7" spans="1:38" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="54"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
       <c r="I7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1224,8 +1224,8 @@
       <c r="AL7" s="1"/>
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="55"/>
-      <c r="G8" s="39" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="14">
@@ -1258,8 +1258,8 @@
       <c r="AG8" s="13"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F9" s="55"/>
-      <c r="G9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="15">
         <v>2</v>
       </c>
@@ -1290,8 +1290,8 @@
       <c r="AG9" s="4"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F10" s="55"/>
-      <c r="G10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="15">
         <v>3</v>
       </c>
@@ -1322,8 +1322,8 @@
       <c r="AG10" s="4"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F11" s="55"/>
-      <c r="G11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="15">
         <v>4</v>
       </c>
@@ -1354,8 +1354,8 @@
       <c r="AG11" s="4"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="55"/>
-      <c r="G12" s="41"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="16">
         <v>5</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="AG12" s="7"/>
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="41" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="17" t="s">
@@ -1414,7 +1414,7 @@
       <c r="AB13" s="13"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="G14" s="40"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="18" t="s">
         <v>27</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="G15" s="40"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="18" t="s">
         <v>28</v>
       </c>
@@ -1466,7 +1466,7 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="G16" s="40"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="18" t="s">
         <v>29</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="7:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="41"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="19" t="s">
         <v>30</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="AB17" s="7"/>
     </row>
     <row r="18" spans="7:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="41" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="17" t="s">
@@ -1541,7 +1541,7 @@
       <c r="W18" s="13"/>
     </row>
     <row r="19" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G19" s="40"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="18" t="s">
         <v>22</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="W19" s="4"/>
     </row>
     <row r="20" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G20" s="40"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="18" t="s">
         <v>23</v>
       </c>
@@ -1583,7 +1583,7 @@
       <c r="W20" s="4"/>
     </row>
     <row r="21" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G21" s="40"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="18" t="s">
         <v>24</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="W21" s="4"/>
     </row>
     <row r="22" spans="7:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="41"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="19" t="s">
         <v>25</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="W22" s="7"/>
     </row>
     <row r="23" spans="7:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="41" t="s">
         <v>3</v>
       </c>
       <c r="H23" s="17" t="s">
@@ -1643,7 +1643,7 @@
       <c r="R23" s="13"/>
     </row>
     <row r="24" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G24" s="40"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="18" t="s">
         <v>17</v>
       </c>
@@ -1659,7 +1659,7 @@
       <c r="R24" s="4"/>
     </row>
     <row r="25" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G25" s="40"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="18" t="s">
         <v>18</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="R25" s="4"/>
     </row>
     <row r="26" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G26" s="40"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="18" t="s">
         <v>19</v>
       </c>
@@ -1691,7 +1691,7 @@
       <c r="R26" s="4"/>
     </row>
     <row r="27" spans="7:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="41"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="19" t="s">
         <v>20</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="R27" s="7"/>
     </row>
     <row r="28" spans="7:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="41" t="s">
         <v>2</v>
       </c>
       <c r="H28" s="17" t="s">
@@ -1720,7 +1720,7 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G29" s="40"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="18" t="s">
         <v>12</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G30" s="40"/>
+      <c r="G30" s="42"/>
       <c r="H30" s="18" t="s">
         <v>13</v>
       </c>
@@ -1742,7 +1742,7 @@
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G31" s="40"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="18" t="s">
         <v>14</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="M31" s="4"/>
     </row>
     <row r="32" spans="7:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="41"/>
+      <c r="G32" s="43"/>
       <c r="H32" s="19" t="s">
         <v>15</v>
       </c>
@@ -1922,54 +1922,54 @@
       <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="51" t="s">
+      <c r="H6" s="46"/>
+      <c r="I6" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="51" t="s">
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="51" t="s">
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="51" t="s">
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="53"/>
-      <c r="AC6" s="51" t="s">
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="42"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="44"/>
+      <c r="AL6" s="44"/>
     </row>
     <row r="7" spans="1:38" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
       <c r="I7" s="20" t="s">
         <v>6</v>
       </c>
@@ -2052,8 +2052,8 @@
       <c r="AL7" s="1"/>
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="55"/>
-      <c r="G8" s="39" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="23">
@@ -2136,8 +2136,8 @@
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F9" s="55"/>
-      <c r="G9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="27">
         <v>2</v>
       </c>
@@ -2218,8 +2218,8 @@
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F10" s="55"/>
-      <c r="G10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="27">
         <v>3</v>
       </c>
@@ -2300,8 +2300,8 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F11" s="55"/>
-      <c r="G11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="42"/>
       <c r="H11" s="27">
         <v>4</v>
       </c>
@@ -2382,8 +2382,8 @@
       </c>
     </row>
     <row r="12" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="55"/>
-      <c r="G12" s="41"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="31">
         <v>5</v>
       </c>
@@ -2464,7 +2464,7 @@
       </c>
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="41" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="23" t="s">
@@ -2537,7 +2537,7 @@
       <c r="AG13" s="35"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="G14" s="40"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="27" t="s">
         <v>27</v>
       </c>
@@ -2608,7 +2608,7 @@
       <c r="AG14" s="35"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="G15" s="40"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="27" t="s">
         <v>28</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="AG15" s="35"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="G16" s="40"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="27" t="s">
         <v>29</v>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="AG16" s="35"/>
     </row>
     <row r="17" spans="7:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="41"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="31" t="s">
         <v>30</v>
       </c>
@@ -2821,7 +2821,7 @@
       <c r="AG17" s="35"/>
     </row>
     <row r="18" spans="7:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="41" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="23" t="s">
@@ -2884,7 +2884,7 @@
       <c r="AG18" s="35"/>
     </row>
     <row r="19" spans="7:33" x14ac:dyDescent="0.25">
-      <c r="G19" s="40"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="27" t="s">
         <v>22</v>
       </c>
@@ -2945,7 +2945,7 @@
       <c r="AG19" s="35"/>
     </row>
     <row r="20" spans="7:33" x14ac:dyDescent="0.25">
-      <c r="G20" s="40"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="27" t="s">
         <v>23</v>
       </c>
@@ -3006,7 +3006,7 @@
       <c r="AG20" s="35"/>
     </row>
     <row r="21" spans="7:33" x14ac:dyDescent="0.25">
-      <c r="G21" s="40"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="27" t="s">
         <v>24</v>
       </c>
@@ -3067,7 +3067,7 @@
       <c r="AG21" s="35"/>
     </row>
     <row r="22" spans="7:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="41"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="31" t="s">
         <v>25</v>
       </c>
@@ -3128,7 +3128,7 @@
       <c r="AG22" s="35"/>
     </row>
     <row r="23" spans="7:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="41" t="s">
         <v>3</v>
       </c>
       <c r="H23" s="23" t="s">
@@ -3181,7 +3181,7 @@
       <c r="AG23" s="35"/>
     </row>
     <row r="24" spans="7:33" x14ac:dyDescent="0.25">
-      <c r="G24" s="40"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="27" t="s">
         <v>17</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="AG24" s="35"/>
     </row>
     <row r="25" spans="7:33" x14ac:dyDescent="0.25">
-      <c r="G25" s="40"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="27" t="s">
         <v>18</v>
       </c>
@@ -3283,7 +3283,7 @@
       <c r="AG25" s="35"/>
     </row>
     <row r="26" spans="7:33" x14ac:dyDescent="0.25">
-      <c r="G26" s="40"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="27" t="s">
         <v>19</v>
       </c>
@@ -3334,7 +3334,7 @@
       <c r="AG26" s="35"/>
     </row>
     <row r="27" spans="7:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="41"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="31" t="s">
         <v>20</v>
       </c>
@@ -3385,7 +3385,7 @@
       <c r="AG27" s="35"/>
     </row>
     <row r="28" spans="7:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="41" t="s">
         <v>2</v>
       </c>
       <c r="H28" s="23" t="s">
@@ -3428,7 +3428,7 @@
       <c r="AG28" s="35"/>
     </row>
     <row r="29" spans="7:33" x14ac:dyDescent="0.25">
-      <c r="G29" s="40"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="27" t="s">
         <v>12</v>
       </c>
@@ -3469,7 +3469,7 @@
       <c r="AG29" s="35"/>
     </row>
     <row r="30" spans="7:33" x14ac:dyDescent="0.25">
-      <c r="G30" s="40"/>
+      <c r="G30" s="42"/>
       <c r="H30" s="27" t="s">
         <v>13</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="AG30" s="35"/>
     </row>
     <row r="31" spans="7:33" x14ac:dyDescent="0.25">
-      <c r="G31" s="40"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="27" t="s">
         <v>14</v>
       </c>
@@ -3551,7 +3551,7 @@
       <c r="AG31" s="35"/>
     </row>
     <row r="32" spans="7:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="41"/>
+      <c r="G32" s="43"/>
       <c r="H32" s="31" t="s">
         <v>15</v>
       </c>
@@ -3617,4 +3617,16 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90273316-0EB1-4703-95EB-ABD2F04966D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>